--- a/Fase_2.1(20%)/Plan de Trabajo (APT).xlsx
+++ b/Fase_2.1(20%)/Plan de Trabajo (APT).xlsx
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,9 +251,6 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,86 +594,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
